--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>ItemId</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -54,6 +57,18 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>BOSS杀手</t>
+  </si>
+  <si>
+    <t>BOSS之家挑战，可以增加一倍倍率</t>
+  </si>
+  <si>
+    <t>BOSS契约</t>
+  </si>
+  <si>
+    <t>广告的BOSS门票收益+1</t>
   </si>
 </sst>
 </file>
@@ -66,7 +81,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +101,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -556,142 +578,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1011,23 +1034,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H5"/>
+  <dimension ref="C3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H10" sqref="B6:H10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1046,8 +1069,11 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,30 +1092,82 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:9">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:9">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50000001</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 C4:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -47,6 +47,9 @@
     <t>MaxCount</t>
   </si>
   <si>
+    <t>DropRate</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -68,7 +71,73 @@
     <t>BOSS契约</t>
   </si>
   <si>
-    <t>广告的BOSS门票收益+1</t>
+    <t>广告的BOSS劵收益+1</t>
+  </si>
+  <si>
+    <t>命运沙漏</t>
+  </si>
+  <si>
+    <t>装备副本CD时间-1S</t>
+  </si>
+  <si>
+    <t>副本契约</t>
+  </si>
+  <si>
+    <t>广告的副本劵收益+1</t>
+  </si>
+  <si>
+    <t>卖身契</t>
+  </si>
+  <si>
+    <t>矿工+1</t>
+  </si>
+  <si>
+    <t>万界图</t>
+  </si>
+  <si>
+    <t>所有图鉴上限提高10%</t>
+  </si>
+  <si>
+    <t>破限本源</t>
+  </si>
+  <si>
+    <t>专属等阶上限+1</t>
+  </si>
+  <si>
+    <t>魔法书</t>
+  </si>
+  <si>
+    <t>所有技能上限提高10%</t>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+  </si>
+  <si>
+    <t>遗物等阶上限+1</t>
+  </si>
+  <si>
+    <t>无限之魂</t>
+  </si>
+  <si>
+    <t>魂环等级上限+1</t>
+  </si>
+  <si>
+    <t>昊天神锤</t>
+  </si>
+  <si>
+    <t>强化等级上限+5000</t>
+  </si>
+  <si>
+    <t>天外神石</t>
+  </si>
+  <si>
+    <t>精练等级上限+5</t>
+  </si>
+  <si>
+    <t>金蛟剪</t>
+  </si>
+  <si>
+    <t>时装等级上限+1</t>
   </si>
 </sst>
 </file>
@@ -1034,23 +1103,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I7"/>
+  <dimension ref="C3:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1072,8 +1141,11 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,39 +1167,45 @@
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="3:9">
+    <row r="6" customHeight="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>50000000</v>
+        <v>180001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1138,19 +1216,22 @@
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:9">
+    <row r="7" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>50000001</v>
+        <v>180002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1161,8 +1242,297 @@
       <c r="H7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:10">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>180003</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>800</v>
+      </c>
+      <c r="I8" s="1">
+        <v>800</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:10">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>180004</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:10">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>180005</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:10">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>180006</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:10">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>180007</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:10">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>180008</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:10">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>180009</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:10">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>180010</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:10">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>180011</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:10">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>180012</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:10">
+      <c r="C18" s="1">
         <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>180013</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -125,7 +125,7 @@
     <t>昊天神锤</t>
   </si>
   <si>
-    <t>强化等级上限+5000</t>
+    <t>强化等级上限+1000</t>
   </si>
   <si>
     <t>天外神石</t>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>时装等级上限+1</t>
+  </si>
+  <si>
+    <t>精练契约</t>
+  </si>
+  <si>
+    <t>广告的精炼石收益+10%</t>
+  </si>
+  <si>
+    <t>财富契约</t>
+  </si>
+  <si>
+    <t>广告的金币经验收益+10%</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J18"/>
+  <dimension ref="C3:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1217,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
@@ -1269,7 +1281,7 @@
         <v>800</v>
       </c>
       <c r="I8" s="1">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -1321,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>20</v>
@@ -1373,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>24</v>
@@ -1393,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
         <v>20</v>
@@ -1425,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>28</v>
@@ -1471,13 +1483,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>32</v>
@@ -1497,13 +1509,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
         <v>30</v>
       </c>
       <c r="I17" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>34</v>
@@ -1533,6 +1545,58 @@
       </c>
       <c r="J18" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:10">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>180014</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:10">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>180015</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>BOSS杀手</t>
   </si>
   <si>
-    <t>BOSS之家挑战，可以增加一倍倍率</t>
+    <t>挑战BOSS之家，可以倍率+1</t>
   </si>
   <si>
     <t>BOSS契约</t>
@@ -1118,7 +1118,7 @@
   <dimension ref="C3:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>long</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1118,14 +1115,14 @@
   <dimension ref="C3:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="9" width="11.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -1197,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -1217,7 +1214,7 @@
         <v>180001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1232,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:10">
@@ -1243,10 +1240,10 @@
         <v>180002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1258,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:10">
@@ -1269,22 +1266,22 @@
         <v>180003</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:10">
@@ -1295,10 +1292,10 @@
         <v>180004</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1310,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:10">
@@ -1321,10 +1318,10 @@
         <v>180005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1336,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:10">
@@ -1347,10 +1344,10 @@
         <v>180006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -1362,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:10">
@@ -1373,10 +1370,10 @@
         <v>180007</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1388,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:10">
@@ -1399,10 +1396,10 @@
         <v>180008</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1">
         <v>10</v>
@@ -1414,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:10">
@@ -1425,10 +1422,10 @@
         <v>180009</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1440,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:10">
@@ -1451,10 +1448,10 @@
         <v>180010</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1466,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:10">
@@ -1477,10 +1474,10 @@
         <v>180011</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1">
         <v>1000</v>
@@ -1492,7 +1489,7 @@
         <v>100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:10">
@@ -1503,10 +1500,10 @@
         <v>180012</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
@@ -1518,7 +1515,7 @@
         <v>100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:10">
@@ -1529,10 +1526,10 @@
         <v>180013</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1544,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:10">
@@ -1555,10 +1552,10 @@
         <v>180014</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1">
         <v>10</v>
@@ -1570,7 +1567,7 @@
         <v>100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:10">
@@ -1581,10 +1578,10 @@
         <v>180015</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1">
         <v>10</v>
@@ -1596,12 +1593,12 @@
         <v>100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 F3 D4 F4 D5 F5 C4:C5 E4:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>广告的金币经验收益+10%</t>
+  </si>
+  <si>
+    <t>天使之翼</t>
+  </si>
+  <si>
+    <t>翅膀上限+1</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J20"/>
+  <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1596,6 +1602,32 @@
         <v>39</v>
       </c>
     </row>
+    <row r="21" customHeight="1" spans="3:10">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>180016</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 F3 D4 F4 D5 F5 C4:C5 E4:E5" errorStyle="warning">

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
   <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1567,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I19" s="1">
         <v>100</v>
@@ -1593,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>翅膀上限+1</t>
+  </si>
+  <si>
+    <t>分解机</t>
+  </si>
+  <si>
+    <t>分解精炼石+1</t>
+  </si>
+  <si>
+    <t>灵魂之引</t>
+  </si>
+  <si>
+    <t>魂环碎片掉落+1</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J21"/>
+  <dimension ref="C3:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1628,6 +1640,58 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" customHeight="1" spans="3:10">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>180017</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:10">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>180018</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1">
+        <v>20</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 F3 D4 F4 D5 F5 C4:C5 E4:E5" errorStyle="warning">

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -161,7 +161,7 @@
     <t>分解精炼石+1</t>
   </si>
   <si>
-    <t>灵魂之引</t>
+    <t>摄魂瓶</t>
   </si>
   <si>
     <t>魂环碎片掉落+1</t>
@@ -1133,7 +1133,7 @@
   <dimension ref="C3:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -1133,7 +1133,7 @@
   <dimension ref="C3:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1651,7 +1651,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="F23" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>魂环碎片掉落+1</t>
+  </si>
+  <si>
+    <t>副本杀手</t>
+  </si>
+  <si>
+    <t>挑战装备副本，可以倍率+1</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J23"/>
+  <dimension ref="C3:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1692,6 +1698,32 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="3:10">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>180019</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1">
+        <v>19</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 F3 D4 F4 D5 F5 C4:C5 E4:E5" errorStyle="warning">

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>挑战装备副本，可以倍率+1</t>
+  </si>
+  <si>
+    <t>传世之源</t>
+  </si>
+  <si>
+    <t>传世等阶上限+1</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J24"/>
+  <dimension ref="C3:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1559,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
@@ -1722,6 +1728,32 @@
       </c>
       <c r="J24" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:10">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>180020</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -1145,7 +1145,7 @@
   <dimension ref="C3:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1383,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1">
         <v>20</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
   <dimension ref="C3:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>传世等阶上限+1</t>
+  </si>
+  <si>
+    <t>神戒之源</t>
+  </si>
+  <si>
+    <t>神戒等级上限+1</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J25"/>
+  <dimension ref="C3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1747,13 +1753,39 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:10">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>180021</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="C3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="C3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
   <dimension ref="C3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D12" sqref="D14 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="C3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D14 D12"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="1">
         <v>100</v>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I23" s="1">
         <v>20</v>
@@ -1790,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 F3 D4 F4 D5 F5 C4:C5 E4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:F3 C4:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>神戒等级上限+1</t>
+  </si>
+  <si>
+    <t>极·卖身契</t>
+  </si>
+  <si>
+    <t>矿工额外加1</t>
+  </si>
+  <si>
+    <t>极·圣者遗物</t>
   </si>
 </sst>
 </file>
@@ -1148,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J26"/>
+  <dimension ref="C3:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1788,9 +1797,61 @@
         <v>51</v>
       </c>
     </row>
+    <row r="30" customHeight="1" spans="3:10">
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3">
+        <v>180030</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:10">
+      <c r="C31" s="1">
+        <v>31</v>
+      </c>
+      <c r="D31" s="3">
+        <v>180031</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:F3 C4:F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1159,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="C3:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="C3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1159,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="C3:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I11" s="1">
         <v>20</v>
@@ -1528,7 +1528,7 @@
         <v>1000</v>
       </c>
       <c r="H16" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I16" s="1">
         <v>100</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I22" s="1">
         <v>100</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I23" s="1">
         <v>20</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1159,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="C3:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1808,7 +1808,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="C3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>

--- a/Excel/ArtifactConfig.xlsx
+++ b/Excel/ArtifactConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="C3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
